--- a/StreamRes/ExcelTable/Excel/UiConfigInfo.xlsx
+++ b/StreamRes/ExcelTable/Excel/UiConfigInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>编号</t>
   </si>
   <si>
     <t>UI名</t>
@@ -1255,162 +1252,162 @@
     </row>
     <row r="3">
       <c r="A3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="I3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/UiConfigInfo.xlsx
+++ b/StreamRes/ExcelTable/Excel/UiConfigInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>UI名</t>
   </si>
   <si>
     <t>FGUI包名</t>
@@ -710,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -856,8 +853,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1187,227 +1182,227 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="I3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="J3" s="49" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>27</v>
+      <c r="G4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>27</v>
+      <c r="C5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>27</v>
+      <c r="H6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>27</v>
+      <c r="E7" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
